--- a/data/income_statement/2digits/size/90_IS_SMALL.xlsx
+++ b/data/income_statement/2digits/size/90_IS_SMALL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>90-Creative, arts and entertainment activities</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>90-Creative, arts and entertainment activities</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,248 +841,283 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>133981.07431</v>
+        <v>144702.21402</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>187840.0545</v>
+        <v>197351.07984</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>186325.94161</v>
+        <v>182851.5526</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>204065.58241</v>
+        <v>203182.98167</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>366781.78939</v>
+        <v>371025.51712</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>344015.79873</v>
+        <v>379883.80895</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>342319.74225</v>
+        <v>361871.786</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>308328.88699</v>
+        <v>345854.96815</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>412289.5813500001</v>
+        <v>446234.43554</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>637204.8126299999</v>
+        <v>663384.93912</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>748791.28964</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>814559.35226</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>576062.509</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>130112.44962</v>
+        <v>140547.14002</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>180839.76934</v>
+        <v>190322.34011</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>176702.52537</v>
+        <v>171956.41326</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>200792.28657</v>
+        <v>198433.58737</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>352000.34095</v>
+        <v>353344.30563</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>336521.7059</v>
+        <v>369800.73001</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>321411.8078</v>
+        <v>340629.85984</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>293046.81049</v>
+        <v>329523.33788</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>395608.05296</v>
+        <v>424446.66464</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>615839.16457</v>
+        <v>632101.8874199999</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>712093.90674</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>773453.4451900001</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>553230.007</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>2281.15663</v>
+        <v>2721.13366</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>3720.10086</v>
+        <v>3931.60983</v>
       </c>
       <c r="E7" s="48" t="n">
         <v>3355.01334</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>667.3043399999999</v>
+        <v>1347.76628</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>8936.2531</v>
+        <v>11020.77178</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>2629.02304</v>
+        <v>3555.87058</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>11633.59829</v>
+        <v>10836.73823</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>6391.24196</v>
+        <v>6455.298610000001</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>3831.69081</v>
+        <v>10662.96919</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>7770.89786</v>
+        <v>17773.08182</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>23540.43522</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>27869.8297</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>14269.616</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>1587.46806</v>
+        <v>1433.94034</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>3280.1843</v>
+        <v>3097.1299</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>6268.4029</v>
+        <v>7540.126</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>2605.9915</v>
+        <v>3401.62802</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>5845.19534</v>
+        <v>6660.43971</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>4865.06979</v>
+        <v>6527.208360000001</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>9274.336160000001</v>
+        <v>10405.18793</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>8890.83454</v>
+        <v>9876.33166</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>12849.83758</v>
+        <v>11124.80171</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>13594.7502</v>
+        <v>13509.96988</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>13156.94768</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>13236.07737</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>8562.886</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>989.37743</v>
+        <v>1233.67934</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>566.8345</v>
+        <v>549.94999</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>991.289</v>
+        <v>856.03237</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>2677.60993</v>
+        <v>2675.48636</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>3400.19993</v>
+        <v>3371.94891</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>3310.84965</v>
+        <v>3426.63379</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>915.0659000000001</v>
+        <v>1008.76154</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>2739.13791</v>
+        <v>4289.465169999999</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>2292.01529</v>
+        <v>2206.57439</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>6810.38461</v>
+        <v>10672.00833</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>7540.85477</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>7534.28259</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>11288.922</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>902.5991300000001</v>
+        <v>1147.40104</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>308.98768</v>
+        <v>292.10317</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>921.71762</v>
+        <v>786.46099</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>2471.91888</v>
+        <v>2464.03006</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>3149.40879</v>
+        <v>3121.15777</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>3143.62295</v>
+        <v>3248.19909</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>608.01848</v>
+        <v>624.5537099999999</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>2521.32212</v>
+        <v>4071.64938</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>1349.25999</v>
+        <v>1393.09579</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>6028.15931</v>
+        <v>9853.84402</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>6741.27301</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>6734.70083</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>10791.973</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>85.7283</v>
@@ -1199,31 +1135,36 @@
         <v>89.10243</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>11.44152</v>
+        <v>22.64952</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>175.73263</v>
+        <v>253.20616</v>
       </c>
       <c r="J11" s="48" t="n">
         <v>105.02702</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>764.8114399999999</v>
+        <v>635.63724</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>635.20773</v>
+        <v>671.14674</v>
       </c>
       <c r="M11" s="48" t="n">
         <v>524.82373</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" s="48" t="n">
+        <v>466.226</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>1.05</v>
+        <v>0.55</v>
       </c>
       <c r="D12" s="48" t="n">
         <v>13.82313</v>
@@ -1232,7 +1173,7 @@
         <v>69.34360000000001</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>78.24541000000001</v>
+        <v>84.01066</v>
       </c>
       <c r="G12" s="48" t="n">
         <v>161.68871</v>
@@ -1241,13 +1182,13 @@
         <v>155.78518</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>131.31479</v>
+        <v>131.00167</v>
       </c>
       <c r="J12" s="48" t="n">
         <v>112.78877</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>177.94386</v>
+        <v>177.84136</v>
       </c>
       <c r="L12" s="48" t="n">
         <v>147.01757</v>
@@ -1255,92 +1196,107 @@
       <c r="M12" s="48" t="n">
         <v>274.75803</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="48" t="n">
+        <v>30.723</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>132991.69688</v>
+        <v>143468.53468</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>187273.22</v>
+        <v>196801.12985</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>185334.65261</v>
+        <v>181995.52023</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>201387.97248</v>
+        <v>200507.49531</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>363381.58946</v>
+        <v>367653.56821</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>340704.94908</v>
+        <v>376457.17516</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>341404.67635</v>
+        <v>360863.02446</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>305589.74908</v>
+        <v>341565.50298</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>409997.56606</v>
+        <v>444027.86115</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>630394.42802</v>
+        <v>652712.93079</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>741250.43487</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>807025.06967</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>564773.5870000001</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>91277.31242</v>
+        <v>100978.71318</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>152396.72881</v>
+        <v>156529.30598</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>148208.12013</v>
+        <v>146381.21314</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>165819.5534</v>
+        <v>165586.052</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>303580.87587</v>
+        <v>306014.51602</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>269814.35361</v>
+        <v>299161.09795</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>283731.53173</v>
+        <v>297681.23548</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>251315.81386</v>
+        <v>279238.93665</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>320940.75396</v>
+        <v>360907.98384</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>518952.15815</v>
+        <v>523463.30991</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>584798.72942</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>652419.9784500001</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>462368.168</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>2436.541</v>
+        <v>3382.13902</v>
       </c>
       <c r="D15" s="48" t="n">
         <v>2857.46291</v>
@@ -1349,115 +1305,130 @@
         <v>4415.77366</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>2633.0325</v>
+        <v>2233.78593</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>2136.59869</v>
+        <v>2153.56269</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>2978.03229</v>
+        <v>2551.68371</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>8150.83778</v>
+        <v>5856.32463</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>9106.717929999999</v>
+        <v>8087.20918</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>16851.27197</v>
+        <v>18165.99354</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>5327.97532</v>
+        <v>4913.88005</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>37988.89426</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>37656.63001</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>26820.491</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>7601.82651</v>
+        <v>8937.56891</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>13639.71915</v>
+        <v>15619.87128</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>11931.38711</v>
+        <v>11182.65966</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>15300.9852</v>
+        <v>15183.34581</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>26651.43111</v>
+        <v>26364.25606</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>48189.16082</v>
+        <v>48300.37414</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>76480.95383</v>
+        <v>74908.07515</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>30606.59637</v>
+        <v>35665.80035</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>36835.80061999999</v>
+        <v>49368.66846</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>84300.84754</v>
+        <v>89144.28951999999</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>53774.48609000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>96659.61815000001</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>111144.478</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>80984.42723999999</v>
+        <v>88645.48758</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>135532.26834</v>
+        <v>137684.69338</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>130772.50174</v>
+        <v>129694.3222</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>147652.16759</v>
+        <v>148041.49315</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>274666.95527</v>
+        <v>277370.80647</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>218186.83143</v>
+        <v>247848.71103</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>196144.20881</v>
+        <v>213961.30439</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>210744.28216</v>
+        <v>234741.99559</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>265758.1454</v>
+        <v>291877.78587</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>427273.1042</v>
+        <v>427354.90925</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>491522.0093</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>516590.39052</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>323666.673</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>254.51767</v>
+        <v>13.51767</v>
       </c>
       <c r="D18" s="48" t="n">
         <v>367.27841</v>
@@ -1466,7 +1437,7 @@
         <v>1088.45762</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>233.36811</v>
+        <v>127.42711</v>
       </c>
       <c r="G18" s="48" t="n">
         <v>125.8908</v>
@@ -1478,7 +1449,7 @@
         <v>2955.53131</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>858.2174</v>
+        <v>743.9315300000001</v>
       </c>
       <c r="K18" s="48" t="n">
         <v>1495.53597</v>
@@ -1489,89 +1460,104 @@
       <c r="M18" s="48" t="n">
         <v>1513.33977</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18" s="48" t="n">
+        <v>736.526</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>41714.38446</v>
+        <v>42489.8215</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>34876.49119</v>
+        <v>40271.82387</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>37126.53247999999</v>
+        <v>35614.30709</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>35568.41908</v>
+        <v>34921.44331</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>59800.71359000001</v>
+        <v>61639.05218999999</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>70890.59547</v>
+        <v>77296.07720999999</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>57673.14462</v>
+        <v>63181.78898</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>54273.93522</v>
+        <v>62326.56633</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>89056.8121</v>
+        <v>83119.87731</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>111442.26987</v>
+        <v>129249.62088</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>156451.70545</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>154605.09122</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>102405.419</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>27755.79718</v>
+        <v>31134.36735</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>30050.5011</v>
+        <v>32181.27355</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>39786.597</v>
+        <v>38005.35496</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>38569.69807</v>
+        <v>35953.31695</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>60688.34555</v>
+        <v>67475.81872</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>60238.22767</v>
+        <v>68384.48589</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>57456.29513000001</v>
+        <v>58908.43183</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>57071.33991</v>
+        <v>68765.75801999999</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>88288.54261</v>
+        <v>87479.61259999999</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>114160.35366</v>
+        <v>119029.78205</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>122972.17966</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>119769.93733</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>85142.80899999999</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>0.8369800000000001</v>
@@ -1589,13 +1575,13 @@
         <v>17.80938</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>21.88617</v>
+        <v>49.37837</v>
       </c>
       <c r="I21" s="48" t="n">
         <v>0.0065</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>8</v>
+        <v>9.161</v>
       </c>
       <c r="K21" s="48" t="n">
         <v>0</v>
@@ -1606,167 +1592,192 @@
       <c r="M21" s="48" t="n">
         <v>1.51624</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>1551.772</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>3772.30838</v>
+        <v>4043.88941</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>5926.61591</v>
+        <v>7133.4285</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>5690.78414</v>
+        <v>5560.22971</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>7049.07979</v>
+        <v>6990.38547</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>10059.44908</v>
+        <v>12696.77211</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>4459.80573</v>
+        <v>7465.97427</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>10228.82979</v>
+        <v>10019.87004</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>8501.90718</v>
+        <v>9521.421859999999</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>10964.37893</v>
+        <v>9622.192289999999</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>16599.78216</v>
+        <v>21337.95478</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>20270.55313</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>18741.82098</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>8897.324000000001</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>23982.65182</v>
+        <v>27089.64096</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>24123.45119</v>
+        <v>25047.41105</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>34095.81286</v>
+        <v>32445.12525</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>31520.61828</v>
+        <v>28962.93148</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>50611.08709</v>
+        <v>54761.23723</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>55756.53577</v>
+        <v>60869.13325</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>47227.45884000001</v>
+        <v>48888.55529</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>48561.43272999999</v>
+        <v>59235.17516</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>77324.16368000001</v>
+        <v>77857.42031</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>97560.57150000001</v>
+        <v>97691.82726999999</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>102700.11029</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>101026.60011</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>74693.713</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>13958.58728</v>
+        <v>11355.45415</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>4825.99009</v>
+        <v>8090.55032</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>-2660.06452</v>
+        <v>-2391.04787</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>-3001.27899</v>
+        <v>-1031.87364</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>-887.6319599999999</v>
+        <v>-5836.76653</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>10652.3678</v>
+        <v>8911.59132</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>216.84949</v>
+        <v>4273.357150000001</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>-2797.40469</v>
+        <v>-6439.191690000001</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>768.26949</v>
+        <v>-4359.73529</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>-2718.08379</v>
+        <v>10219.83883</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>33479.52579</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>34835.15389</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>17262.61</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>1463.63318</v>
+        <v>3367.16046</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>2928.97377</v>
+        <v>2848.00669</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>2750.07575</v>
+        <v>2463.97634</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>2817.0493</v>
+        <v>2651.89479</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>4717.331429999999</v>
+        <v>4882.941080000001</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>2852.73584</v>
+        <v>4791.13056</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>3267.95154</v>
+        <v>3525.05146</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>3342.08865</v>
+        <v>4398.91785</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>11068.96204</v>
+        <v>12895.1461</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>29429.54965</v>
+        <v>59505.07169</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>13404.42534</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>19765.4438</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>30880.245</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>0</v>
@@ -1793,22 +1804,27 @@
         <v>0</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>3376.78266</v>
+        <v>261.51013</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>2980.93464</v>
+        <v>754.25653</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>1006.0731</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>147.17092</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
-        <v>0</v>
+        <v>252.74715</v>
       </c>
       <c r="D27" s="48" t="n">
         <v>0</v>
@@ -1826,7 +1842,7 @@
         <v>0</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="J27" s="48" t="n">
         <v>0</v>
@@ -1840,50 +1856,60 @@
       <c r="M27" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>437.37194</v>
+        <v>438.87471</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>682.95395</v>
+        <v>492.67196</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>593.15768</v>
+        <v>411.64031</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>882.5668900000001</v>
+        <v>439.87224</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>801.19413</v>
+        <v>704.21042</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>773.37497</v>
+        <v>1071.97211</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>753.9699300000001</v>
+        <v>445.4983</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>654.0207800000001</v>
+        <v>712.70563</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>1269.40807</v>
+        <v>1274.7191</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>2268.51682</v>
+        <v>3081.14767</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>2083.89147</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>3751.91728</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>5398.765</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>0.015</v>
@@ -1901,10 +1927,10 @@
         <v>5.831090000000001</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>5.97445</v>
+        <v>5.72445</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>0.65425</v>
+        <v>0.9</v>
       </c>
       <c r="J29" s="48" t="n">
         <v>0</v>
@@ -1918,26 +1944,31 @@
       <c r="M29" s="48" t="n">
         <v>0.0052</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>25.529</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>103.4</v>
+        <v>48.6</v>
       </c>
       <c r="D30" s="48" t="n">
         <v>27.51503</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F30" s="48" t="n">
         <v>66.631</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>1094.51852</v>
+        <v>1089.79852</v>
       </c>
       <c r="H30" s="48" t="n">
         <v>64.0994</v>
@@ -1949,7 +1980,7 @@
         <v>257.07951</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>327.603</v>
+        <v>404.46914</v>
       </c>
       <c r="L30" s="48" t="n">
         <v>841.801</v>
@@ -1957,89 +1988,104 @@
       <c r="M30" s="48" t="n">
         <v>989.1388199999999</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>256.992</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>115.25167</v>
+        <v>112.04132</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>85.73098</v>
+        <v>85.74155999999999</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>116.88387</v>
+        <v>116.87849</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>92.35622000000001</v>
+        <v>192.16021</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>194.43101</v>
+        <v>192.30795</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>23.17546</v>
+        <v>11.73146</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>33.07639</v>
+        <v>8.86115</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>83.24810000000001</v>
+        <v>15.37903</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>191.39925</v>
+        <v>356.62654</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>526.6164699999999</v>
+        <v>529.6675300000001</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>841.6770799999999</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>745.6770799999999</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>101.876</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>683.74491</v>
+        <v>1907.2406</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>1538.39235</v>
+        <v>1630.44056</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>1777.9353</v>
+        <v>1680.35864</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>1276.1034</v>
+        <v>1461.75861</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>2335.28036</v>
+        <v>2602.43799</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>981.90433</v>
+        <v>2661.46066</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>1115.80484</v>
+        <v>1670.66424</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>937.99564</v>
+        <v>1981.6958</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>2757.03515</v>
+        <v>7339.28434</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>19602.55624</v>
+        <v>52295.22223</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>6259.42101</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>11732.23324</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>22114.787</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>0</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2113,131 +2164,151 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>123.84966</v>
+        <v>607.6416800000001</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>433.18333</v>
+        <v>450.43945</v>
       </c>
       <c r="E35" s="48" t="n">
         <v>255.0989</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>398.23285</v>
+        <v>390.31379</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>230.72602</v>
+        <v>233.00481</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>971.5365400000001</v>
+        <v>943.4717900000001</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>1154.35013</v>
+        <v>1173.03177</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>1409.74462</v>
+        <v>1432.05788</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>3031.48751</v>
+        <v>3143.29045</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>3171.82349</v>
+        <v>1965.67574</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>2224.21866</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>2399.30126</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>2982.296</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>1582.64976</v>
+        <v>3349.49216</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>1956.57487</v>
+        <v>2057.4618</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>3658.46825</v>
+        <v>3638.6165</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>1793.77412</v>
+        <v>1975.23391</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>9606.016619999999</v>
+        <v>9396.36716</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>2887.21587</v>
+        <v>3839.75465</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>2492.24469</v>
+        <v>2336.4894</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>2987.38641</v>
+        <v>3130.88937</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>9372.155720000001</v>
+        <v>9285.185750000001</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>46524.33223</v>
+        <v>56149.62403</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>11392.84987</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>12444.73745</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>14069.04</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>124.79956</v>
+        <v>109.96757</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>43.76045</v>
+        <v>103.49008</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>103.0453</v>
+        <v>178.71796</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>92.08571999999999</v>
+        <v>150.55927</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>383.42742</v>
+        <v>396.18499</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>772.30476</v>
+        <v>777.70803</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>427.99328</v>
+        <v>411.7372800000001</v>
       </c>
       <c r="J37" s="48" t="n">
         <v>1033.79477</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>474.4864</v>
+        <v>482.7764</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>1897.27955</v>
+        <v>2120.62082</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>847.52325</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>1092.80372</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>276.458</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>105.66624</v>
+        <v>50.86624</v>
       </c>
       <c r="D38" s="48" t="n">
         <v>94.71477</v>
@@ -2249,7 +2320,7 @@
         <v>0</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>1914.53312</v>
+        <v>1909.81312</v>
       </c>
       <c r="H38" s="48" t="n">
         <v>687.79535</v>
@@ -2258,10 +2329,10 @@
         <v>257.07951</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>344.035</v>
+        <v>384.83351</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>953.6170100000001</v>
+        <v>1191.28999</v>
       </c>
       <c r="L38" s="48" t="n">
         <v>1085.536</v>
@@ -2269,11 +2340,16 @@
       <c r="M38" s="48" t="n">
         <v>988.2675300000001</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>1554.283</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>0</v>
@@ -2294,13 +2370,13 @@
         <v>0</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>314.06596</v>
+        <v>0</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>1.32722</v>
+        <v>0</v>
       </c>
       <c r="L39" s="48" t="n">
         <v>0.62848</v>
@@ -2308,50 +2384,60 @@
       <c r="M39" s="48" t="n">
         <v>2.25123</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>13.088</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>1061.25339</v>
+        <v>2666.49855</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>1414.26636</v>
+        <v>1476.9898</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>3067.65771</v>
+        <v>2978.16098</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>799.86713</v>
+        <v>899.85263</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>5921.81187</v>
+        <v>5910.00853</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>903.20209</v>
+        <v>2003.05683</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>1362.30995</v>
+        <v>1440.74258</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>1366.68988</v>
+        <v>1484.19742</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>6712.049660000001</v>
+        <v>6365.15829</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>40566.23509</v>
+        <v>50784.31370000001</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>8082.5441</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>8894.167660000001</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>11023.241</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>0</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2425,131 +2516,151 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>290.93057</v>
+        <v>522.1598</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>402.43134</v>
+        <v>380.8652</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>392.40287</v>
+        <v>386.37519</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>901.07926</v>
+        <v>924.08</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>1299.27179</v>
+        <v>1093.3881</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>519.11257</v>
+        <v>366.39334</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>130.79599</v>
+        <v>226.93003</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>236.86676</v>
+        <v>228.06367</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>1230.67543</v>
+        <v>1245.96107</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>2974.65311</v>
+        <v>2158.52503</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>1472.26376</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>1467.24731</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>1201.97</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>4196.375389999999</v>
+        <v>5929.267360000001</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>1570.87484</v>
+        <v>1848.66487</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>1957.83125</v>
+        <v>1932.23285</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>3195.84602</v>
+        <v>3206.13454</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>6029.94341</v>
+        <v>5936.85002</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>3857.63534</v>
+        <v>5219.211929999999</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>2522.2359</v>
+        <v>5605.8943</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>3567.1976</v>
+        <v>6631.8551</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>6343.62429</v>
+        <v>15466.3224</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>24501.86387</v>
+        <v>33108.63978</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>11879.64267</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>23269.07659</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>10758.7</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>4155.45246</v>
+        <v>5313.98292</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>1556.44885</v>
+        <v>1834.23888</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>1844.2977</v>
+        <v>1818.6993</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>2950.69601</v>
+        <v>2964.34022</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>5435.82649</v>
+        <v>5688.60184</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>3407.38697</v>
+        <v>4896.52167</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>2460.0686</v>
+        <v>5577.88536</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>3567.1976</v>
+        <v>6631.8551</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>6270.39008</v>
+        <v>15218.85118</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>23996.71532</v>
+        <v>32603.49123</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>11874.69105</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>23264.12497</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>10758.144</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>40.92293</v>
+        <v>615.2844399999999</v>
       </c>
       <c r="D46" s="48" t="n">
         <v>14.42599</v>
@@ -2558,22 +2669,22 @@
         <v>113.53355</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>245.15001</v>
+        <v>241.79432</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>594.1169200000001</v>
+        <v>248.24818</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>450.24837</v>
+        <v>322.69026</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>62.1673</v>
+        <v>28.00894</v>
       </c>
       <c r="J46" s="48" t="n">
         <v>0</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>73.23421</v>
+        <v>247.47122</v>
       </c>
       <c r="L46" s="48" t="n">
         <v>505.14855</v>
@@ -2581,98 +2692,113 @@
       <c r="M46" s="48" t="n">
         <v>4.95162</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="48" t="n">
+        <v>0.556</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>9643.195310000001</v>
+        <v>5443.85509</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>4227.51415</v>
+        <v>7032.43034</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>-5526.288269999999</v>
+        <v>-5497.92088</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>-5173.84983</v>
+        <v>-3561.3473</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>-11806.26056</v>
+        <v>-16287.04263</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>6760.25243</v>
+        <v>4643.7553</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>-1529.67956</v>
+        <v>-143.97509</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>-6009.90005</v>
+        <v>-11803.01831</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>-3878.54848</v>
+        <v>-16216.09734</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>-44314.73024</v>
+        <v>-19533.35329</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>23611.45859</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>18886.78365</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>23315.115</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>2916.01916</v>
+        <v>3165.96983</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>2012.63875</v>
+        <v>1208.56594</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>1875.9625</v>
+        <v>1772.47205</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>3526.24141</v>
+        <v>1113.23344</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>2589.7764</v>
+        <v>2261.58254</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>2732.31447</v>
+        <v>2628.59666</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>1853.55446</v>
+        <v>1568.62378</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>2524.4739</v>
+        <v>2972.70608</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>2542.60408</v>
+        <v>2649.90151</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>9663.464609999999</v>
+        <v>6609.70989</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>9213.187550000001</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>9358.88544</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>8677.51</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>12.31315</v>
+        <v>26.08499</v>
       </c>
       <c r="D49" s="48" t="n">
         <v>12.12846</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>10.58596</v>
+        <v>0</v>
       </c>
       <c r="F49" s="48" t="n">
         <v>0</v>
@@ -2681,7 +2807,7 @@
         <v>3.11945</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>147.80505</v>
+        <v>54.41831</v>
       </c>
       <c r="I49" s="48" t="n">
         <v>27.32461</v>
@@ -2698,89 +2824,104 @@
       <c r="M49" s="48" t="n">
         <v>5.83636</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>77.78100000000001</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>2903.70601</v>
+        <v>3139.88484</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>2000.51029</v>
+        <v>1196.43748</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>1865.37654</v>
+        <v>1772.47205</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>3526.24141</v>
+        <v>1113.23344</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>2586.65695</v>
+        <v>2258.46309</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>2584.50942</v>
+        <v>2574.17835</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>1826.22985</v>
+        <v>1541.29917</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>2471.94772</v>
+        <v>2920.1799</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>2451.53835</v>
+        <v>2558.83578</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>9646.06201</v>
+        <v>6592.30729</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>9207.351189999999</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>9353.049080000001</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>8599.728999999999</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>2329.84452</v>
+        <v>2873.35838</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>2023.2185</v>
+        <v>1314.9968</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>10361.47983</v>
+        <v>8438.520980000001</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>1533.52522</v>
+        <v>1309.54077</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>4181.38861</v>
+        <v>3788.38897</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>8540.56531</v>
+        <v>6026.52341</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>1380.00334</v>
+        <v>1321.29192</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>7516.592860000001</v>
+        <v>9644.908640000001</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>3518.76456</v>
+        <v>3401.65778</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>21732.65794</v>
+        <v>19371.27442</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>11262.54275</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>12742.40099</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>4937.346</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>0</v>
@@ -2795,19 +2936,19 @@
         <v>0</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>1234.77833</v>
+        <v>1197.24436</v>
       </c>
       <c r="H52" s="48" t="n">
         <v>0</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>1.62044</v>
+        <v>0</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>0</v>
+        <v>0.3708</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>0.01444</v>
+        <v>1075.02644</v>
       </c>
       <c r="L52" s="48" t="n">
         <v>0</v>
@@ -2815,203 +2956,231 @@
       <c r="M52" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>18.32098</v>
+        <v>442.87696</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>126.35386</v>
+        <v>18.0472</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>113.2888</v>
+        <v>6.60529</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>29.22028</v>
+        <v>29.17112</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>581.28898</v>
+        <v>580.25103</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>21.56166</v>
+        <v>34.28921</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>36.8363</v>
+        <v>35.38651</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>82.0698</v>
+        <v>80.76444000000001</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>27.88041</v>
+        <v>27.61231</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>42.72987999999999</v>
+        <v>42.63606</v>
       </c>
       <c r="M53" s="48" t="n">
         <v>54.5369</v>
       </c>
-    </row>
-    <row r="54" spans="1:13">
+      <c r="N53" s="48" t="n">
+        <v>264.426</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>2311.52354</v>
+        <v>2430.48142</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>1896.86464</v>
+        <v>1296.9496</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>10248.19103</v>
+        <v>8431.91569</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>1504.30494</v>
+        <v>1280.36965</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>2365.3213</v>
+        <v>2010.89358</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>8519.003650000001</v>
+        <v>5992.2342</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>1341.5466</v>
+        <v>1285.90541</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>7434.52306</v>
+        <v>9563.7734</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>3490.86971</v>
+        <v>2299.01903</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>21689.92806</v>
+        <v>19328.63836</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>11208.00585</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>12687.86409</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>4672.92</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>10229.36995</v>
+        <v>5736.46654</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>4216.9344</v>
+        <v>6925.99948</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-14011.8056</v>
+        <v>-12163.96981</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>-3181.13364</v>
+        <v>-3757.65463</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>-13397.87277</v>
+        <v>-17813.84906</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>952.00159</v>
+        <v>1245.82855</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>-1056.12844</v>
+        <v>103.35677</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-11002.01901</v>
+        <v>-18475.22087</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>-4854.70896</v>
+        <v>-16967.85361</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-56383.92357</v>
+        <v>-32294.91782</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>21562.10339</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>15503.2681</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>27055.279</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>2241.35141</v>
+        <v>2234.60359</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>2387.72848</v>
+        <v>2767.0148</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>2051.30887</v>
+        <v>1831.36344</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>2287.12981</v>
+        <v>1809.28638</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>3119.99073</v>
+        <v>2906.61645</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>2754.802</v>
+        <v>2970.51437</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>1860.58037</v>
+        <v>1901.4136</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>1627.93244</v>
+        <v>1765.1107</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>3802.1798</v>
+        <v>3978.97942</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>6270.16752</v>
+        <v>5543.654070000001</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>12539.31603</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>11351.27211</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>4753.66</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>7988.01854</v>
+        <v>3501.86295</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>1829.20592</v>
+        <v>4158.98468</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-16063.11447</v>
+        <v>-13995.33325</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>-5468.26345</v>
+        <v>-5566.94101</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>-16517.8635</v>
+        <v>-20720.46551</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>-1802.80041</v>
+        <v>-1724.68582</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>-2916.70881</v>
+        <v>-1798.05683</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-12629.95145</v>
+        <v>-20240.33157</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>-8656.88876</v>
+        <v>-20946.83303</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-62654.09109</v>
+        <v>-37838.57189</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>9022.78736</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>4151.99599</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>22301.619</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>150</v>
+        <v>124</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>161</v>
+        <v>133</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>163</v>
+        <v>123</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>160</v>
+        <v>132</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>182</v>
+        <v>145</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>127</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>